--- a/BSTAuto_Python/bst_new/data/qy_list/企业抽取_模板.xlsx
+++ b/BSTAuto_Python/bst_new/data/qy_list/企业抽取_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="12375"/>
+    <workbookView windowWidth="19515" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -22,7 +22,154 @@
     <t>zhongbiaoren</t>
   </si>
   <si>
-    <t>云南人防建筑设计院有限公司</t>
+    <t>云南昊源建筑有限公司</t>
+  </si>
+  <si>
+    <t>云南鸿巍建设工程有限公司</t>
+  </si>
+  <si>
+    <t>云南华泽科技有限公司</t>
+  </si>
+  <si>
+    <t>云南环奥安装工程有限公司</t>
+  </si>
+  <si>
+    <t>云南佳民建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南坦盛岩土工程有限公司</t>
+  </si>
+  <si>
+    <t>云南卓航建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南建投第六建设有限公司</t>
+  </si>
+  <si>
+    <t>云南景湖环境工程有限公司</t>
+  </si>
+  <si>
+    <t>云南省勤丰建筑经营有限公司</t>
+  </si>
+  <si>
+    <t>云南万达建工集团有限公司</t>
+  </si>
+  <si>
+    <t>云南景升建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南景顺建设工程有限公司</t>
+  </si>
+  <si>
+    <t>云南开升工程建设有限责任公司</t>
+  </si>
+  <si>
+    <t>云南京骏建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南康鼎机电安装工程有限公司</t>
+  </si>
+  <si>
+    <t>云南昆钢机械设备制造建安工程有限公司</t>
+  </si>
+  <si>
+    <t>云南朗瑞综合建设有限公司</t>
+  </si>
+  <si>
+    <t>云南立翔科技股份有限公司</t>
+  </si>
+  <si>
+    <t>云南鲁布革顾问有限公司</t>
+  </si>
+  <si>
+    <t>云南立信工程造价咨询有限公司</t>
+  </si>
+  <si>
+    <t>云南盘江建筑安装工程有限公司</t>
+  </si>
+  <si>
+    <t>云南齐航建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南阡源工程设计有限公司</t>
+  </si>
+  <si>
+    <t>昭通市水利水电勘测设计研究院</t>
+  </si>
+  <si>
+    <t>云南融谐电力安装工程有限公司</t>
+  </si>
+  <si>
+    <t>云南锐驰路桥工程有限公司</t>
+  </si>
+  <si>
+    <t>云南锐鉴建设工程有限公司</t>
+  </si>
+  <si>
+    <t>云南睿邦工程技术有限公司</t>
+  </si>
+  <si>
+    <t>云南博奥建设工程咨询有限公司</t>
+  </si>
+  <si>
+    <t>云南亿泰道桥工程有限公司</t>
+  </si>
+  <si>
+    <t>云南省第四公路桥梁工程有限公司</t>
+  </si>
+  <si>
+    <t>云南省玉溪市汇力彩钢金属结构工程有限公司</t>
+  </si>
+  <si>
+    <t>云南盛誉科技有限公司</t>
+  </si>
+  <si>
+    <t>云南天一建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南通海第二建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南道恩建筑设计有限公司</t>
+  </si>
+  <si>
+    <t>云南文辉园林绿化工程有限公司</t>
+  </si>
+  <si>
+    <t>云南沃润特环境工程有限公司</t>
+  </si>
+  <si>
+    <t>云南冠群建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南信达工程咨询有限公司</t>
+  </si>
+  <si>
+    <t>云南星湖建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南星飓力科技有限公司</t>
+  </si>
+  <si>
+    <t>云南永定建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南誉威公路工程有限公司</t>
+  </si>
+  <si>
+    <t>云南至仁建筑有限公司</t>
+  </si>
+  <si>
+    <t>云南泽伟建设工程有限公司</t>
+  </si>
+  <si>
+    <t>云南大固建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>云南贵标能源科技有限公司</t>
+  </si>
+  <si>
+    <t>云南信永中和工程管理咨询有限公司</t>
   </si>
 </sst>
 </file>
@@ -166,23 +313,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,16 +655,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,10 +676,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,7 +700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -562,79 +709,79 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -962,15 +1109,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -985,8 +1132,400 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/BSTAuto_Python/bst_new/data/qy_list/企业抽取_模板.xlsx
+++ b/BSTAuto_Python/bst_new/data/qy_list/企业抽取_模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,15 +192,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,54 +266,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,17 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,35 +330,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,38 +610,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,39 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,145 +643,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
